--- a/QualityControl/Skadekontrol.xlsx
+++ b/QualityControl/Skadekontrol.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\LBIntranet\QualityControl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="270" windowWidth="11100" windowHeight="5325"/>
   </bookViews>
@@ -10,14 +15,14 @@
     <sheet name="Skadekvalitet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Skadekvalitet">'Skadekvalitet'!$A$1:$K$11</definedName>
+    <definedName name="Skadekvalitet">Skadekvalitet!$A$1:$K$11</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>PriviligedUser</t>
   </si>
@@ -117,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -148,20 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,14 +166,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,39 +184,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -298,151 +295,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,9 +542,9 @@
         <v>17</v>
       </c>
       <c r="I2">
-        <v>1010000000010000</v>
-      </c>
-      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
         <v>43382</v>
       </c>
       <c r="K2">
@@ -556,9 +577,9 @@
         <v>17</v>
       </c>
       <c r="I3">
-        <v>1010000000010000</v>
-      </c>
-      <c r="J3" s="12">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
         <v>43382</v>
       </c>
       <c r="K3">
@@ -591,9 +612,9 @@
         <v>17</v>
       </c>
       <c r="I4">
-        <v>1010000000010000</v>
-      </c>
-      <c r="J4" s="12">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
         <v>43382</v>
       </c>
       <c r="K4">
@@ -626,9 +647,9 @@
         <v>22</v>
       </c>
       <c r="I5">
-        <v>1010000000010000</v>
-      </c>
-      <c r="J5" s="12">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
         <v>43382</v>
       </c>
       <c r="K5">
@@ -661,9 +682,9 @@
         <v>22</v>
       </c>
       <c r="I6">
-        <v>1010000000010000</v>
-      </c>
-      <c r="J6" s="12">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
         <v>43382</v>
       </c>
       <c r="K6">
@@ -696,9 +717,9 @@
         <v>24</v>
       </c>
       <c r="I7">
-        <v>1010000000010000</v>
-      </c>
-      <c r="J7" s="12">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
         <v>43382</v>
       </c>
       <c r="K7">
@@ -731,9 +752,9 @@
         <v>26</v>
       </c>
       <c r="I8">
-        <v>1010000000010000</v>
-      </c>
-      <c r="J8" s="12">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
         <v>43382</v>
       </c>
       <c r="K8">
@@ -766,9 +787,9 @@
         <v>28</v>
       </c>
       <c r="I9">
-        <v>1010000000010000</v>
-      </c>
-      <c r="J9" s="12">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
         <v>43382</v>
       </c>
       <c r="K9">
@@ -801,9 +822,9 @@
         <v>28</v>
       </c>
       <c r="I10">
-        <v>1010000000010000</v>
-      </c>
-      <c r="J10" s="12">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1">
         <v>43382</v>
       </c>
       <c r="K10">
@@ -836,9 +857,9 @@
         <v>30</v>
       </c>
       <c r="I11">
-        <v>1010000000010000</v>
-      </c>
-      <c r="J11" s="12">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
         <v>43382</v>
       </c>
       <c r="K11">

--- a/QualityControl/Skadekontrol.xlsx
+++ b/QualityControl/Skadekontrol.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\LBIntranet\QualityControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BD4A25-5AAF-4383-8BF3-05833858D5B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="11100" windowHeight="5325"/>
+    <workbookView xWindow="720" yWindow="270" windowWidth="11100" windowHeight="5325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skadekvalitet" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="23">
   <si>
     <t>PriviligedUser</t>
   </si>
@@ -87,47 +88,31 @@
     <t>NICD</t>
   </si>
   <si>
-    <t>Luise Jørgensen</t>
-  </si>
-  <si>
-    <t>lujo@lb.dk</t>
-  </si>
-  <si>
-    <t>Carsten Rasmussen</t>
-  </si>
-  <si>
-    <t>carr@lb.dk</t>
-  </si>
-  <si>
     <t>Mads Yhde</t>
   </si>
   <si>
     <t>mayh@lb.dk</t>
-  </si>
-  <si>
-    <t>Ole Jensen</t>
-  </si>
-  <si>
-    <t>olje@lb.dk</t>
-  </si>
-  <si>
-    <t>Troels Nielsen</t>
-  </si>
-  <si>
-    <t>trni@lb.dk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,14 +135,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -176,7 +164,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +202,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -249,6 +237,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -284,9 +289,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="G12" sqref="G12:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +610,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -623,13 +645,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -641,10 +663,10 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -658,13 +680,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -676,10 +698,10 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -711,10 +733,10 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -728,13 +750,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -746,10 +768,10 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -763,13 +785,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -781,10 +803,10 @@
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -798,13 +820,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -816,10 +838,10 @@
         <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -833,13 +855,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -851,10 +873,10 @@
         <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -866,7 +888,379 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1">
+        <v>43382</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1">
+        <v>43382</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1">
+        <v>43382</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1">
+        <v>43382</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1">
+        <v>43382</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1">
+        <v>43382</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1">
+        <v>43382</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1">
+        <v>43382</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1">
+        <v>43382</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1">
+        <v>43382</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{19AFB483-7A21-4D6E-8A83-E946B8AD4835}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{5CBC53EF-A3A3-47D8-8222-1E320A7E714F}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{0E852A24-4D84-4061-867E-773EF6AE623D}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{EDA72DC5-D4B8-404E-9F21-129362E977D5}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{45CD2E85-ED29-487C-8485-DA021F74BA63}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{F8E7BE8A-24C1-4804-B97C-50B99DB73651}"/>
+    <hyperlink ref="B17" r:id="rId7" xr:uid="{1D540A6B-096F-4D8F-99AA-DF7ABF4BA6D8}"/>
+    <hyperlink ref="B18" r:id="rId8" xr:uid="{A798BAB3-6696-4C8B-95EA-CCCED01F2297}"/>
+    <hyperlink ref="B19" r:id="rId9" xr:uid="{021B794D-0CFD-4C44-8619-F7C8005A320D}"/>
+    <hyperlink ref="B20" r:id="rId10" xr:uid="{103F0C02-748C-4367-AF80-452FE0A59C79}"/>
+    <hyperlink ref="B21" r:id="rId11" xr:uid="{DE5714A9-DEB4-44C1-ABA2-98E0B14E93E8}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{F3AC408B-78DB-4FAF-9810-0BFD8824996C}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{09FC5B6F-8B10-4B32-B8A7-B215839187B7}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{60F8E335-2C17-49B6-BB71-46EC7275E0FD}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{14AF1180-BE2B-4450-83DB-AC31E9C16AA2}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{B510C9C7-4157-409F-97CD-DFB7EA3BDAC7}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{9FEDB272-25BA-42CD-9B2A-B473D42EBEC3}"/>
+    <hyperlink ref="H19" r:id="rId18" xr:uid="{1415D7B7-17BA-4E40-ABDA-1929E6CD50A0}"/>
+    <hyperlink ref="H20" r:id="rId19" xr:uid="{49D6A2BF-F181-4260-A22C-59FDE186F6CB}"/>
+    <hyperlink ref="H21" r:id="rId20" xr:uid="{22764EC0-C419-4859-A69A-7CB11555C591}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
